--- a/data/8_room.xlsx
+++ b/data/8_room.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HOTEC_TimeTable\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1646EFCF-4401-4C71-B192-5DBC55A6E696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA862839-59DD-4AE2-AE7D-5EF5EB5A7B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="480" windowWidth="12336" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="room" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>code</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>NET, DEV</t>
+  </si>
+  <si>
+    <t>NET, DEV, GRA, WEB</t>
+  </si>
+  <si>
+    <t>GRA, DEV</t>
   </si>
 </sst>
 </file>
@@ -483,7 +489,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,7 +532,10 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -540,7 +549,10 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -554,7 +566,10 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -568,7 +583,7 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
         <v>38</v>
@@ -585,7 +600,7 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
         <v>38</v>
@@ -602,7 +617,7 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
         <v>39</v>
@@ -619,7 +634,7 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
@@ -636,7 +651,7 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
         <v>40</v>
@@ -724,7 +739,7 @@
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -741,7 +756,7 @@
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
